--- a/Eviews/Datosprogfin2025.xlsx
+++ b/Eviews/Datosprogfin2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CESAR\Documents\GitHub\Financial_Programming_BO\Eviews\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Paulo Ramos\Nueva carpeta (2)\GitHub\Financial_Programming_BO\Eviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04361834-3AF2-47F1-A298-FC86AF0CF803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5299E68-A4B2-48C5-825A-6262E1977A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{84B86697-939E-4748-A8DF-47EF29B5DBFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{84B86697-939E-4748-A8DF-47EF29B5DBFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -461,18 +461,18 @@
   <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -531,7 +531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1980</v>
       </c>
@@ -545,7 +545,7 @@
         <v>9.7989999999999987E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1981</v>
       </c>
@@ -559,7 +559,7 @@
         <v>1.123E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1982</v>
       </c>
@@ -573,7 +573,7 @@
         <v>4.1909399999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1983</v>
       </c>
@@ -587,7 +587,7 @@
         <v>0.13301089999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1984</v>
       </c>
@@ -601,7 +601,7 @@
         <v>3.0708510000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1985</v>
       </c>
@@ -615,7 +615,7 @@
         <v>183.59008900000001</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1986</v>
       </c>
@@ -629,7 +629,7 @@
         <v>306.99911300000002</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1987</v>
       </c>
@@ -646,7 +646,7 @@
         <v>414.14337699999999</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1988</v>
       </c>
@@ -681,7 +681,7 @@
         <v>541.93043899999998</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1989</v>
       </c>
@@ -716,7 +716,7 @@
         <v>530.45000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1990</v>
       </c>
@@ -757,7 +757,7 @@
         <v>668.12099999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1991</v>
       </c>
@@ -813,7 +813,7 @@
         <v>1.8340734499933301E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1992</v>
       </c>
@@ -869,7 +869,7 @@
         <v>-7.8906127691992199E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1993</v>
       </c>
@@ -925,7 +925,7 @@
         <v>-8.7003968386284297E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1994</v>
       </c>
@@ -981,7 +981,7 @@
         <v>-6.5077769964517196E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1995</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>3.9314644004456202E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1996</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>6.1484159127372902E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1997</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>3.0262155861830301E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1998</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>-1.18879378876525E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1999</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>-1.82722083489524E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2000</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>-1.1546923213333201E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2001</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>-3.3773029262205503E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2002</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>-1.86345426285662E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2003</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>-5.5823317474391404E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2004</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>-1.5553971912214901E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2005</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>-1.86425911663417E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2006</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>-4.5689608064446103E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2007</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>5.5659003514130501E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2008</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>5.5641616275886999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2009</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>-5.3512971351859402E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2010</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>1.43198806774578E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2011</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>1.37591890744012E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2012</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>-5.70725127897663E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2013</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>1.6200925812091899E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2014</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>8.0602683326422495E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2015</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>-9.3157756349546601E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2016</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>4.7434418064606701E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2017</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>-4.3929778318963003E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2018</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>-1.37955974233431E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2019</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>-1.2990790433639701E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2020</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>-2.1123370879504499E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2021</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>-2.05418645015478E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2022</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>-1.75801858558929E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2023</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>-1.54707177224329E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2024</v>
       </c>
@@ -2755,99 +2755,99 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
